--- a/Data/Excels/Syncolon/Resumes/Experiment 68.xlsx
+++ b/Data/Excels/Syncolon/Resumes/Experiment 68.xlsx
@@ -446,202 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Improvement (%)</t>
+          <t>105-2-115-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Final Vs Mov (%)</t>
+          <t>105-2-115-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. movement</t>
+          <t>105-2-115-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. error</t>
+          <t>105-2-115-FarPoints Av. error</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints Av. upToScale error</t>
+          <t>105-2-115-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints RMSE</t>
+          <t>105-2-115-FarPoints RMSE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints t C1C2 norm (mm)</t>
+          <t>105-2-115-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints parallax</t>
+          <t>105-2-115-FarPoints parallax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMatches</t>
+          <t>105-2-115-FarPoints nMatches</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>105-2-115-TwoPoints nMPs</t>
+          <t>105-2-115-FarPoints nMPs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Improvement (%)</t>
+          <t>125-3-140-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Final Vs Mov (%)</t>
+          <t>125-3-140-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. movement</t>
+          <t>125-3-140-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. error</t>
+          <t>125-3-140-FarPoints Av. error</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints Av. upToScale error</t>
+          <t>125-3-140-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints RMSE</t>
+          <t>125-3-140-FarPoints RMSE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints t C1C2 norm (mm)</t>
+          <t>125-3-140-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints parallax</t>
+          <t>125-3-140-FarPoints parallax</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMatches</t>
+          <t>125-3-140-FarPoints nMatches</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>125-3-140-TwoPoints nMPs</t>
+          <t>125-3-140-FarPoints nMPs</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Improvement (%)</t>
+          <t>140-3-150-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Final Vs Mov (%)</t>
+          <t>140-3-150-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. movement</t>
+          <t>140-3-150-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. error</t>
+          <t>140-3-150-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints Av. upToScale error</t>
+          <t>140-3-150-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints RMSE</t>
+          <t>140-3-150-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints t C1C2 norm (mm)</t>
+          <t>140-3-150-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints parallax</t>
+          <t>140-3-150-FarPoints parallax</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMatches</t>
+          <t>140-3-150-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>140-3-150-TwoPoints nMPs</t>
+          <t>140-3-150-FarPoints nMPs</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Improvement (%)</t>
+          <t>150-2-160-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Final Vs Mov (%)</t>
+          <t>150-2-160-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. movement</t>
+          <t>150-2-160-FarPoints Av. movement</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. error</t>
+          <t>150-2-160-FarPoints Av. error</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints Av. upToScale error</t>
+          <t>150-2-160-FarPoints Av. upToScale error</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints RMSE</t>
+          <t>150-2-160-FarPoints RMSE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints t C1C2 norm (mm)</t>
+          <t>150-2-160-FarPoints t C1C2 norm (mm)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints parallax</t>
+          <t>150-2-160-FarPoints parallax</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMatches</t>
+          <t>150-2-160-FarPoints nMatches</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>150-2-160-TwoPoints nMPs</t>
+          <t>150-2-160-FarPoints nMPs</t>
         </is>
       </c>
     </row>
@@ -660,16 +660,16 @@
         <v>-3.73</v>
       </c>
       <c r="D2" t="n">
-        <v>14226.82</v>
+        <v>14226.61</v>
       </c>
       <c r="E2" t="n">
         <v>1.4</v>
       </c>
       <c r="F2" t="n">
-        <v>199.74</v>
+        <v>199.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>200.67</v>
@@ -681,28 +681,28 @@
         <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L2" t="n">
         <v>148</v>
       </c>
       <c r="M2" t="n">
-        <v>71.12</v>
+        <v>78.05</v>
       </c>
       <c r="N2" t="n">
-        <v>704.62</v>
+        <v>532.25</v>
       </c>
       <c r="O2" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>6.64</v>
+        <v>5.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.95</v>
+        <v>2.09</v>
       </c>
       <c r="R2" t="n">
-        <v>8.550000000000001</v>
+        <v>5.47</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -711,28 +711,28 @@
         <v>2.15</v>
       </c>
       <c r="U2" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="V2" t="n">
         <v>294</v>
       </c>
       <c r="W2" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1569.42</v>
+        <v>1616.36</v>
       </c>
       <c r="Y2" t="n">
         <v>0.89</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.89</v>
+        <v>14.31</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.22</v>
+        <v>12.63</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.93</v>
+        <v>19.89</v>
       </c>
       <c r="AC2" t="n">
         <v>2.5</v>
@@ -747,22 +747,22 @@
         <v>476</v>
       </c>
       <c r="AG2" t="n">
-        <v>92.64</v>
+        <v>92.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>46.57</v>
+        <v>45.53</v>
       </c>
       <c r="AI2" t="n">
         <v>1.85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>5.3</v>
@@ -771,7 +771,7 @@
         <v>2.09</v>
       </c>
       <c r="AO2" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AP2" t="n">
         <v>90</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.45</v>
+        <v>57.32</v>
       </c>
       <c r="D3" t="n">
-        <v>2564.58</v>
+        <v>1130</v>
       </c>
       <c r="E3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F3" t="n">
-        <v>43.26</v>
+        <v>18.94</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>6.26</v>
       </c>
       <c r="H3" t="n">
-        <v>45.29</v>
+        <v>19.84</v>
       </c>
       <c r="I3" t="n">
         <v>1.77</v>
@@ -813,58 +813,58 @@
         <v>1.81</v>
       </c>
       <c r="K3" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L3" t="n">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="M3" t="n">
-        <v>62.59</v>
+        <v>69.05</v>
       </c>
       <c r="N3" t="n">
-        <v>774.4400000000001</v>
+        <v>642.8200000000001</v>
       </c>
       <c r="O3" t="n">
         <v>1.61</v>
       </c>
       <c r="P3" t="n">
-        <v>12.45</v>
+        <v>10.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.69</v>
+        <v>7.03</v>
       </c>
       <c r="R3" t="n">
-        <v>14.97</v>
+        <v>13.44</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="U3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V3" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="W3" t="n">
-        <v>0.99</v>
+        <v>35.82</v>
       </c>
       <c r="X3" t="n">
-        <v>1591.66</v>
+        <v>1032.9</v>
       </c>
       <c r="Y3" t="n">
         <v>1.21</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.22</v>
+        <v>12.48</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.06</v>
+        <v>7.63</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.27</v>
+        <v>15.82</v>
       </c>
       <c r="AC3" t="n">
         <v>2.5</v>
@@ -879,22 +879,22 @@
         <v>668</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.33</v>
+        <v>1.89</v>
       </c>
       <c r="AH3" t="n">
-        <v>659.01</v>
+        <v>671.4299999999999</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.630000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.24</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.11</v>
+        <v>11.55</v>
       </c>
       <c r="AM3" t="n">
         <v>1.77</v>
@@ -903,10 +903,10 @@
         <v>2.27</v>
       </c>
       <c r="AO3" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AP3" t="n">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4">
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.96</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0599999999999</v>
+        <v>457.85</v>
       </c>
       <c r="E4" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="F4" t="n">
-        <v>23.82</v>
+        <v>20.04</v>
       </c>
       <c r="G4" t="n">
-        <v>22.62</v>
+        <v>13.55</v>
       </c>
       <c r="H4" t="n">
-        <v>28.72</v>
+        <v>25.14</v>
       </c>
       <c r="I4" t="n">
         <v>3.97</v>
@@ -951,52 +951,52 @@
         <v>866</v>
       </c>
       <c r="M4" t="n">
-        <v>33.52</v>
+        <v>6.87</v>
       </c>
       <c r="N4" t="n">
-        <v>1184.14</v>
+        <v>1667.24</v>
       </c>
       <c r="O4" t="n">
         <v>1.98</v>
       </c>
       <c r="P4" t="n">
-        <v>23.46</v>
+        <v>33.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.39</v>
+        <v>30.69</v>
       </c>
       <c r="R4" t="n">
-        <v>24.66</v>
+        <v>44.15</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="U4" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="V4" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="W4" t="n">
-        <v>27.54</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.42</v>
+        <v>1545.24</v>
       </c>
       <c r="Y4" t="n">
         <v>1.12</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.81</v>
+        <v>17.37</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.34</v>
+        <v>14.65</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.78</v>
+        <v>23.33</v>
       </c>
       <c r="AC4" t="n">
         <v>2.5</v>
@@ -1011,22 +1011,22 @@
         <v>500</v>
       </c>
       <c r="AG4" t="n">
-        <v>29.2</v>
+        <v>42.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>626.87</v>
+        <v>518.08</v>
       </c>
       <c r="AI4" t="n">
         <v>1.6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.02</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.42</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AL4" t="n">
-        <v>13.62</v>
+        <v>12.06</v>
       </c>
       <c r="AM4" t="n">
         <v>1.77</v>
@@ -1035,7 +1035,7 @@
         <v>2.59</v>
       </c>
       <c r="AO4" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AP4" t="n">
         <v>750</v>
@@ -1053,52 +1053,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-33.87</v>
+        <v>31.64</v>
       </c>
       <c r="D5" t="n">
-        <v>1722.69</v>
+        <v>876.23</v>
       </c>
       <c r="E5" t="n">
         <v>1.81</v>
       </c>
       <c r="F5" t="n">
-        <v>31.15</v>
+        <v>15.88</v>
       </c>
       <c r="G5" t="n">
-        <v>4.46</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>33.36</v>
+        <v>18.07</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
       </c>
       <c r="J5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="K5" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L5" t="n">
         <v>1170</v>
       </c>
       <c r="M5" t="n">
-        <v>38.98</v>
+        <v>44.62</v>
       </c>
       <c r="N5" t="n">
-        <v>893.25</v>
+        <v>813.3</v>
       </c>
       <c r="O5" t="n">
         <v>2.07</v>
       </c>
       <c r="P5" t="n">
-        <v>18.51</v>
+        <v>16.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.95</v>
+        <v>5.23</v>
       </c>
       <c r="R5" t="n">
-        <v>23.19</v>
+        <v>18.9</v>
       </c>
       <c r="S5" t="n">
         <v>2.5</v>
@@ -1107,28 +1107,28 @@
         <v>2.95</v>
       </c>
       <c r="U5" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="V5" t="n">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="W5" t="n">
-        <v>45.41</v>
+        <v>8.65</v>
       </c>
       <c r="X5" t="n">
-        <v>994.5700000000001</v>
+        <v>1660.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.17</v>
+        <v>23.68</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.59</v>
+        <v>18.63</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.55</v>
+        <v>28.57</v>
       </c>
       <c r="AC5" t="n">
         <v>2.5</v>
@@ -1143,34 +1143,34 @@
         <v>664</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.49</v>
+        <v>10.38</v>
       </c>
       <c r="AH5" t="n">
-        <v>897.16</v>
+        <v>802.11</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.66</v>
+        <v>15.93</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.72</v>
+        <v>10.26</v>
       </c>
       <c r="AL5" t="n">
-        <v>22.57</v>
+        <v>19.03</v>
       </c>
       <c r="AM5" t="n">
         <v>1.77</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AO5" t="n">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AP5" t="n">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28.7</v>
+        <v>25.19</v>
       </c>
       <c r="D6" t="n">
-        <v>691.86</v>
+        <v>722.51</v>
       </c>
       <c r="E6" t="n">
         <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>13.42</v>
+        <v>14.05</v>
       </c>
       <c r="G6" t="n">
-        <v>4.94</v>
+        <v>12.06</v>
       </c>
       <c r="H6" t="n">
-        <v>15.22</v>
+        <v>17.73</v>
       </c>
       <c r="I6" t="n">
         <v>1.77</v>
@@ -1209,58 +1209,58 @@
         <v>2.11</v>
       </c>
       <c r="K6" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L6" t="n">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="M6" t="n">
-        <v>57.13</v>
+        <v>8.08</v>
       </c>
       <c r="N6" t="n">
-        <v>667.16</v>
+        <v>1408.62</v>
       </c>
       <c r="O6" t="n">
         <v>2.3</v>
       </c>
       <c r="P6" t="n">
-        <v>15.32</v>
+        <v>32.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.51</v>
+        <v>27.31</v>
       </c>
       <c r="R6" t="n">
-        <v>18.21</v>
+        <v>43.22</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="U6" t="n">
         <v>384</v>
       </c>
       <c r="V6" t="n">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="W6" t="n">
-        <v>7.79</v>
+        <v>0.64</v>
       </c>
       <c r="X6" t="n">
-        <v>1170.46</v>
+        <v>1308.43</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.65</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.1</v>
+        <v>11.29</v>
       </c>
       <c r="AB6" t="n">
-        <v>20.71</v>
+        <v>22.39</v>
       </c>
       <c r="AC6" t="n">
         <v>2.5</v>
@@ -1269,40 +1269,40 @@
         <v>2.85</v>
       </c>
       <c r="AE6" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF6" t="n">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AG6" t="n">
-        <v>28.85</v>
+        <v>1.48</v>
       </c>
       <c r="AH6" t="n">
-        <v>635.8</v>
+        <v>881.84</v>
       </c>
       <c r="AI6" t="n">
         <v>1.97</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.53</v>
+        <v>17.38</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.08</v>
+        <v>13.21</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.58</v>
+        <v>22.68</v>
       </c>
       <c r="AM6" t="n">
         <v>1.77</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AO6" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AP6" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.12</v>
+        <v>25.38</v>
       </c>
       <c r="D7" t="n">
-        <v>572.92</v>
+        <v>855.28</v>
       </c>
       <c r="E7" t="n">
         <v>2.08</v>
       </c>
       <c r="F7" t="n">
-        <v>11.93</v>
+        <v>17.8</v>
       </c>
       <c r="G7" t="n">
-        <v>12.01</v>
+        <v>4.39</v>
       </c>
       <c r="H7" t="n">
-        <v>15.26</v>
+        <v>20.28</v>
       </c>
       <c r="I7" t="n">
         <v>1.77</v>
@@ -1341,28 +1341,28 @@
         <v>2.73</v>
       </c>
       <c r="K7" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L7" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M7" t="n">
-        <v>32.53</v>
+        <v>44.76</v>
       </c>
       <c r="N7" t="n">
-        <v>804.76</v>
+        <v>656.8</v>
       </c>
       <c r="O7" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="P7" t="n">
-        <v>18.93</v>
+        <v>15.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.26</v>
+        <v>8.09</v>
       </c>
       <c r="R7" t="n">
-        <v>23.98</v>
+        <v>18.8</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
@@ -1371,34 +1371,34 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="V7" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="W7" t="n">
-        <v>10.6</v>
+        <v>33.82</v>
       </c>
       <c r="X7" t="n">
-        <v>1550.89</v>
+        <v>1153.93</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.38</v>
+        <v>18.83</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.44</v>
+        <v>5.24</v>
       </c>
       <c r="AB7" t="n">
-        <v>29.87</v>
+        <v>21.89</v>
       </c>
       <c r="AC7" t="n">
         <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="AE7" t="n">
         <v>308</v>
@@ -1407,22 +1407,22 @@
         <v>598</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.3</v>
+        <v>4.32</v>
       </c>
       <c r="AH7" t="n">
-        <v>887.45</v>
+        <v>852.53</v>
       </c>
       <c r="AI7" t="n">
         <v>2.52</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22.39</v>
+        <v>21.52</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.03</v>
+        <v>10.36</v>
       </c>
       <c r="AL7" t="n">
-        <v>25.39</v>
+        <v>24.4</v>
       </c>
       <c r="AM7" t="n">
         <v>1.77</v>
@@ -1431,10 +1431,10 @@
         <v>3.42</v>
       </c>
       <c r="AO7" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AP7" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.71</v>
+        <v>51.36</v>
       </c>
       <c r="D8" t="n">
-        <v>497.94</v>
+        <v>647.17</v>
       </c>
       <c r="E8" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="F8" t="n">
-        <v>10.66</v>
+        <v>13.93</v>
       </c>
       <c r="G8" t="n">
-        <v>4.51</v>
+        <v>11.75</v>
       </c>
       <c r="H8" t="n">
-        <v>13.21</v>
+        <v>15.47</v>
       </c>
       <c r="I8" t="n">
         <v>1.77</v>
@@ -1473,28 +1473,28 @@
         <v>2.28</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="M8" t="n">
-        <v>25.82</v>
+        <v>44.52</v>
       </c>
       <c r="N8" t="n">
-        <v>778.5</v>
+        <v>582.8099999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="P8" t="n">
-        <v>18.73</v>
+        <v>13.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.93</v>
+        <v>13.21</v>
       </c>
       <c r="R8" t="n">
-        <v>25.53</v>
+        <v>19.69</v>
       </c>
       <c r="S8" t="n">
         <v>2.5</v>
@@ -1503,28 +1503,28 @@
         <v>2.69</v>
       </c>
       <c r="U8" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V8" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="W8" t="n">
-        <v>37.27</v>
+        <v>35.63</v>
       </c>
       <c r="X8" t="n">
-        <v>971.35</v>
+        <v>991.24</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.61</v>
+        <v>19.81</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.08</v>
+        <v>4.99</v>
       </c>
       <c r="AB8" t="n">
-        <v>24.54</v>
+        <v>22.8</v>
       </c>
       <c r="AC8" t="n">
         <v>2.5</v>
@@ -1533,28 +1533,28 @@
         <v>2.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF8" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.52</v>
+        <v>-1.22</v>
       </c>
       <c r="AH8" t="n">
-        <v>884.4</v>
+        <v>879.9299999999999</v>
       </c>
       <c r="AI8" t="n">
         <v>3.93</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34.78</v>
+        <v>34.61</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AL8" t="n">
-        <v>35.24</v>
+        <v>35.11</v>
       </c>
       <c r="AM8" t="n">
         <v>1.77</v>
